--- a/02-08-26 to 02-14-26 Milwaukee Schedule.xlsx
+++ b/02-08-26 to 02-14-26 Milwaukee Schedule.xlsx
@@ -544,20 +544,52 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bag 12</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bag 12</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -579,20 +611,52 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bag 12</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bag 13</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bag 12</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bag 13</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
     </row>
@@ -614,20 +678,44 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Bag 13</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Bag 13</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
     </row>

--- a/02-08-26 to 02-14-26 Milwaukee Schedule.xlsx
+++ b/02-08-26 to 02-14-26 Milwaukee Schedule.xlsx
@@ -868,7 +868,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #614, MILWAUKEE</t>
+          <t>OPEN PANTRY #612, BROOKFIELD</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -915,7 +915,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>3110 S 76TH ST</t>
+          <t>17235 W BLUEMOUND RD</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -962,7 +962,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fpg1rAd58h22</t>
+          <t>https://goo.gl/maps/awRYbmypZ4H2</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -2208,7 +2208,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #612, BROOKFIELD</t>
+          <t>OPEN PANTRY #614, MILWAUKEE</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2243,7 +2243,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>17235 W BLUEMOUND RD</t>
+          <t>3110 S 76TH ST</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2286,7 +2286,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/awRYbmypZ4H2</t>
+          <t>https://goo.gl/maps/fpg1rAd58h22</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>

--- a/02-08-26 to 02-14-26 Milwaukee Schedule.xlsx
+++ b/02-08-26 to 02-14-26 Milwaukee Schedule.xlsx
@@ -1043,7 +1043,11 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>RESETS AISLES  2 &amp; 3 - NOT REMAPPED (MGR EMAILED WED FEB 4)</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
@@ -1089,21 +1093,9 @@
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>@ Store, Santa Fe, Equip</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
@@ -1171,15 +1163,19 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>@ Store, Santa Fe, Equip</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
@@ -1235,20 +1231,15 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
@@ -1291,15 +1282,20 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
@@ -1346,12 +1342,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1405,19 +1401,15 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
@@ -1473,12 +1465,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1541,12 +1533,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Dan</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1604,12 +1596,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Jerry</t>
+          <t>Dan</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1667,12 +1659,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jerry</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1735,12 +1727,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1794,12 +1786,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1862,12 +1854,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1929,12 +1921,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1976,12 +1968,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2025,9 +2017,21 @@
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
@@ -2120,11 +2124,7 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
@@ -2169,7 +2169,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2208,7 +2208,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #614, MILWAUKEE</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2243,7 +2243,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>3110 S 76TH ST</t>
+          <t>OPEN PANTRY #614, MILWAUKEE</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2286,7 +2286,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fpg1rAd58h22</t>
+          <t>3110 S 76TH ST</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2339,7 +2339,11 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/fpg1rAd58h22</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
@@ -2365,21 +2369,9 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
@@ -2406,15 +2398,19 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
@@ -2447,8 +2443,16 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
@@ -2514,11 +2518,7 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>5:15 AM MEET BAYSHORE</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
@@ -2551,7 +2551,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t xml:space="preserve">7:00 AM START </t>
+          <t>5:15 AM MEET BAYSHORE</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2586,7 +2586,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t xml:space="preserve">MODAS-SCAN </t>
+          <t xml:space="preserve">7:00 AM START </t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2621,7 +2621,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1141, GREEN BAY</t>
+          <t xml:space="preserve">MODAS-SCAN </t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -2652,7 +2652,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2253 W MASON ST</t>
+          <t>AURORA OUTPATIENT RX #1141, GREEN BAY</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/NvQLfmurboSGhyoo8</t>
+          <t>2253 W MASON ST</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -2726,7 +2726,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Check in with Kim at Oshkosh after the site is done</t>
+          <t>https://goo.gl/maps/NvQLfmurboSGhyoo8</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -2755,7 +2755,11 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Check in with Kim at Oshkosh after the site is done</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
@@ -2785,22 +2789,9 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
@@ -2831,15 +2822,20 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
@@ -2868,8 +2864,16 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>

--- a/02-08-26 to 02-14-26 Milwaukee Schedule.xlsx
+++ b/02-08-26 to 02-14-26 Milwaukee Schedule.xlsx
@@ -1500,7 +1500,8 @@
       <c r="S21" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Red Van,
+Trainer</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
@@ -1628,7 +1629,11 @@
           <t>Mariah</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr"/>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>work w/ Jerry</t>
+        </is>
+      </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr">

--- a/02-08-26 to 02-14-26 Milwaukee Schedule.xlsx
+++ b/02-08-26 to 02-14-26 Milwaukee Schedule.xlsx
@@ -1236,10 +1236,15 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
@@ -1287,15 +1292,10 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1406,10 +1406,14 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
@@ -1470,7 +1474,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1539,7 +1543,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Dan</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1602,7 +1606,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Dan</t>
+          <t>Jerry</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1669,7 +1673,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Jerry</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1737,7 +1741,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1796,7 +1800,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1864,7 +1868,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1931,7 +1935,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1978,7 +1982,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2022,21 +2026,9 @@
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Nagui</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
@@ -2129,7 +2121,11 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
@@ -2174,7 +2170,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2213,7 +2209,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>OPEN PANTRY #614, MILWAUKEE</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2248,7 +2244,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #614, MILWAUKEE</t>
+          <t>3110 S 76TH ST</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2291,7 +2287,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>3110 S 76TH ST</t>
+          <t>https://goo.gl/maps/fpg1rAd58h22</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2344,11 +2340,7 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/fpg1rAd58h22</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
@@ -2374,9 +2366,21 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
@@ -2403,19 +2407,15 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
@@ -2448,16 +2448,8 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
@@ -2523,7 +2515,11 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>5:15 AM MEET BAYSHORE</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
@@ -2556,7 +2552,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>5:15 AM MEET BAYSHORE</t>
+          <t xml:space="preserve">7:00 AM START </t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2591,7 +2587,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t xml:space="preserve">7:00 AM START </t>
+          <t xml:space="preserve">MODAS-SCAN </t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2626,7 +2622,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t xml:space="preserve">MODAS-SCAN </t>
+          <t>AURORA OUTPATIENT RX #1141, GREEN BAY</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -2657,7 +2653,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1141, GREEN BAY</t>
+          <t>2253 W MASON ST</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -2700,7 +2696,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2253 W MASON ST</t>
+          <t>https://goo.gl/maps/NvQLfmurboSGhyoo8</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -2731,7 +2727,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/NvQLfmurboSGhyoo8</t>
+          <t>Check in with Kim at Oshkosh after the site is done</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -2760,11 +2756,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Check in with Kim at Oshkosh after the site is done</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
@@ -2794,9 +2786,22 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
@@ -2827,20 +2832,15 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
@@ -2869,16 +2869,8 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>

--- a/02-08-26 to 02-14-26 Milwaukee Schedule.xlsx
+++ b/02-08-26 to 02-14-26 Milwaukee Schedule.xlsx
@@ -1191,7 +1191,11 @@
           <t>Anamaria</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr"/>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>work w/ Leyna</t>
+        </is>
+      </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
@@ -1570,7 +1574,11 @@
           <t>Leyna</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr"/>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr">

--- a/02-08-26 to 02-14-26 Milwaukee Schedule.xlsx
+++ b/02-08-26 to 02-14-26 Milwaukee Schedule.xlsx
@@ -2327,7 +2327,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
